--- a/DRE/cap08-BasesDeDatos/IPT_ACRM_BD7-Commercial activities_150428.xlsx
+++ b/DRE/cap08-BasesDeDatos/IPT_ACRM_BD7-Commercial activities_150428.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" iterateDelta="1E-4"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -642,7 +642,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DRE/cap08-BasesDeDatos/IPT_ACRM_BD7-Commercial activities_150428.xlsx
+++ b/DRE/cap08-BasesDeDatos/IPT_ACRM_BD7-Commercial activities_150428.xlsx
@@ -642,7 +642,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
